--- a/output/【河洛話注音】姜伯約歸降孔明，武鄉侯罵死王朗.xlsx
+++ b/output/【河洛話注音】姜伯約歸降孔明，武鄉侯罵死王朗.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanjui/workspace/rime/ho-lok-oe-chu-im/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BCF1B31-F0CD-D34B-A6A9-6C865D10B971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C6DE37-8607-4E8B-8347-BA66C37BC266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="880" windowWidth="29320" windowHeight="19720" xr2:uid="{4D117EEC-FE52-D647-8958-7E85778F96ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{4D117EEC-FE52-D647-8958-7E85778F96ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="漢字注音表" sheetId="4" r:id="rId1"/>
+    <sheet name="字庫表" sheetId="3" r:id="rId2"/>
+    <sheet name="缺字表" sheetId="2" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="env" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="FILE_NAME">env!$C$3</definedName>
+    <definedName name="IMAGE_URL">env!$C$5</definedName>
+    <definedName name="INPUT_FILE_PATH">env!$C$2</definedName>
+    <definedName name="TITLE">env!$C$4</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="138">
   <si>
     <t>因廟堂之上，朽木為官；</t>
   </si>
@@ -51,13 +61,417 @@
   </si>
   <si>
     <t>以致社稷邱墟，蒼生塗炭。</t>
+  </si>
+  <si>
+    <t>因</t>
+  </si>
+  <si>
+    <t>廟</t>
+  </si>
+  <si>
+    <t>堂</t>
+  </si>
+  <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>，</t>
+  </si>
+  <si>
+    <t>朽</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>為</t>
+  </si>
+  <si>
+    <t>官</t>
+  </si>
+  <si>
+    <t>；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>殿</t>
+  </si>
+  <si>
+    <t>陛</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>禽</t>
+  </si>
+  <si>
+    <t>獸</t>
+  </si>
+  <si>
+    <t>食</t>
+  </si>
+  <si>
+    <t>祿</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>輩</t>
+  </si>
+  <si>
+    <t>滾</t>
+  </si>
+  <si>
+    <t>當</t>
+  </si>
+  <si>
+    <t>朝</t>
+  </si>
+  <si>
+    <t>奴</t>
+  </si>
+  <si>
+    <t>顏</t>
+  </si>
+  <si>
+    <t>婢</t>
+  </si>
+  <si>
+    <t>膝</t>
+  </si>
+  <si>
+    <t>徒</t>
+  </si>
+  <si>
+    <t>紛</t>
+  </si>
+  <si>
+    <t>秉</t>
+  </si>
+  <si>
+    <t>政</t>
+  </si>
+  <si>
+    <t>以</t>
+  </si>
+  <si>
+    <t>致</t>
+  </si>
+  <si>
+    <t>社</t>
+  </si>
+  <si>
+    <t>稷</t>
+  </si>
+  <si>
+    <t>邱</t>
+  </si>
+  <si>
+    <t>墟</t>
+  </si>
+  <si>
+    <t>蒼</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>塗</t>
+  </si>
+  <si>
+    <t>炭</t>
+  </si>
+  <si>
+    <t>Øin1</t>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>biau7</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>iau</t>
+  </si>
+  <si>
+    <t>tong5</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>ong</t>
+  </si>
+  <si>
+    <t>ci1</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>siong2</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>iong</t>
+  </si>
+  <si>
+    <t>hiu2</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>bok8</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Øui7</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>kuan1</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>uan</t>
+  </si>
+  <si>
+    <t>tian7</t>
+  </si>
+  <si>
+    <t>ian</t>
+  </si>
+  <si>
+    <t>pe2</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>kan1</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>kan3</t>
+  </si>
+  <si>
+    <t>kim5</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>siu3</t>
+  </si>
+  <si>
+    <t>Øi7</t>
+  </si>
+  <si>
+    <t>long5</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>sim1</t>
+  </si>
+  <si>
+    <t>kio2</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>hong5</t>
+  </si>
+  <si>
+    <t>hing5</t>
+  </si>
+  <si>
+    <t>hong7</t>
+  </si>
+  <si>
+    <t>hing7</t>
+  </si>
+  <si>
+    <t>pue3</t>
+  </si>
+  <si>
+    <t>ue</t>
+  </si>
+  <si>
+    <t>tong1</t>
+  </si>
+  <si>
+    <t>tiau1</t>
+  </si>
+  <si>
+    <t>loo5</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>gan5</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>pi2</t>
+  </si>
+  <si>
+    <t>sit4</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>too5</t>
+  </si>
+  <si>
+    <t>hun1</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>ping2</t>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>cing3</t>
+  </si>
+  <si>
+    <t>Øi2</t>
+  </si>
+  <si>
+    <t>ti3</t>
+  </si>
+  <si>
+    <t>sia2</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>cik4</t>
+  </si>
+  <si>
+    <t>ik</t>
+  </si>
+  <si>
+    <t>khiu1</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>khi1</t>
+  </si>
+  <si>
+    <t>chong1</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>sing1</t>
+  </si>
+  <si>
+    <t>than3</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INPUT_FILE_PATH</t>
+  </si>
+  <si>
+    <t>d:\work\Piau-Im\output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_NAME</t>
+  </si>
+  <si>
+    <t>Piau-Tsu-Im.xlsx</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>IMAGE_URL</t>
+  </si>
+  <si>
+    <t>https://imagepphcloud.thepaper.cn/pph/image/138/820/983.jpg</t>
+  </si>
+  <si>
+    <t>姜伯約歸降孔明，武鄉侯罵死王朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -71,13 +485,25 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Noto Sans TC"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,8 +520,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -116,9 +551,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +591,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -262,7 +697,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,21 +839,1445 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A9AA61-525A-457A-9ACA-9C89403879DF}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="51">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="51">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="51">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="51">
+      <c r="A50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="51">
+      <c r="A63" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6D8F99-A985-4EC4-A64A-A4BBA4FBB2E2}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>13351</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>18891</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>17880</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>17977</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4974</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>17802</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>15322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>24067</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>7470</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>7701</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>18964</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>19069</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>7319</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>18980</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>5773</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>5778</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>7331</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>13471</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>7679</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>59</v>
+      </c>
+      <c r="B20">
+        <v>19086</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>2703</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>6891</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FF3847-6563-406B-952A-7B030578FD12}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F205E45-F10A-724D-BCC7-6CA39A5028B6}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -443,6 +2302,68 @@
     <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1A1DFB-E57A-4033-8C02-CAE7F0E694AC}">
+  <dimension ref="B1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
+  <cols>
+    <col min="1" max="1" width="3.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="61.90625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.90625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/output/【河洛話注音】姜伯約歸降孔明，武鄉侯罵死王朗.xlsx
+++ b/output/【河洛話注音】姜伯約歸降孔明，武鄉侯罵死王朗.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86070CB-50AE-48D1-A2B8-68713D65B964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9DFF9C-59D0-430C-99CC-6750580B43AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23190" yWindow="2070" windowWidth="21480" windowHeight="11895" xr2:uid="{4D117EEC-FE52-D647-8958-7E85778F96ED}"/>
+    <workbookView xWindow="-27525" yWindow="2340" windowWidth="27525" windowHeight="12435" xr2:uid="{4D117EEC-FE52-D647-8958-7E85778F96ED}"/>
   </bookViews>
   <sheets>
     <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
@@ -632,9 +632,6 @@
 </t>
   </si>
   <si>
-    <t>&lt;div class='zhu_yin'&gt;&lt;p class='title'&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;因&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄣ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1328,6 +1325,9 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;炭&lt;/rb&gt;&lt;rt&gt;than3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='Piau_Im'&gt;&lt;p class='title'&gt;</t>
   </si>
 </sst>
 </file>
@@ -1721,37 +1721,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1761,22 +1761,22 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -1791,22 +1791,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1816,22 +1816,22 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -1851,32 +1851,32 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -1886,22 +1886,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -1916,32 +1916,32 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -1951,22 +1951,22 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -1981,32 +1981,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -2016,22 +2016,22 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -2218,37 +2218,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2258,22 +2258,22 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2288,22 +2288,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -2313,17 +2313,17 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -2348,32 +2348,32 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2393,12 +2393,12 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -2413,32 +2413,32 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -2448,22 +2448,22 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -2478,32 +2478,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -2513,22 +2513,22 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -2565,37 +2565,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2605,22 +2605,22 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2635,22 +2635,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -2660,17 +2660,17 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -2695,32 +2695,32 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2740,12 +2740,12 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -2760,32 +2760,32 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -2795,22 +2795,22 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -2825,32 +2825,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -2860,22 +2860,22 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -2912,37 +2912,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2952,22 +2952,22 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2982,22 +2982,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3007,17 +3007,17 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3042,32 +3042,32 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3087,12 +3087,12 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3107,32 +3107,32 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -3142,22 +3142,22 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -3172,32 +3172,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -3207,22 +3207,22 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -3259,37 +3259,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3299,22 +3299,22 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -3329,22 +3329,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3354,17 +3354,17 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3389,32 +3389,32 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3434,12 +3434,12 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3454,32 +3454,32 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -3489,22 +3489,22 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -3519,32 +3519,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -3554,22 +3554,22 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -3611,32 +3611,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3646,22 +3646,22 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -3676,22 +3676,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3701,17 +3701,17 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3736,32 +3736,32 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3781,12 +3781,12 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3801,32 +3801,32 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -3836,22 +3836,22 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -3866,32 +3866,32 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -3901,22 +3901,22 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:1">
